--- a/Data/Input/claims_data.xlsx
+++ b/Data/Input/claims_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MorisMwaiWachira\Desktop\MorisMwai_RPA_Assignment\CIC_Claims_Automation_Assessment\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFDDB2C1-1C0C-44C3-B63A-381C0EC79D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12863C2A-62D6-43F8-849D-8FD7EB26260F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ClaimsData" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="372">
   <si>
     <t>Policyholder_ID</t>
   </si>
@@ -46,958 +46,1099 @@
     <t>Supporting_Document</t>
   </si>
   <si>
-    <t>NJ2ITJ</t>
+    <t>WQR691</t>
   </si>
   <si>
     <t>CLM001</t>
   </si>
   <si>
-    <t>2024-10-05</t>
+    <t>2024-12-25</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Property</t>
+  </si>
+  <si>
+    <t>C:\docs\CLM001.pdf</t>
+  </si>
+  <si>
+    <t>FHX923</t>
+  </si>
+  <si>
+    <t>CLM002</t>
+  </si>
+  <si>
+    <t>2025-07-07</t>
   </si>
   <si>
     <t>South Sudan</t>
   </si>
   <si>
-    <t>Property</t>
-  </si>
-  <si>
-    <t>NEA6KM</t>
-  </si>
-  <si>
-    <t>CLM002</t>
-  </si>
-  <si>
-    <t>24-07-2025</t>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>LFQ179</t>
+  </si>
+  <si>
+    <t>CLM003</t>
+  </si>
+  <si>
+    <t>2025-02-17</t>
+  </si>
+  <si>
+    <t>Motor</t>
+  </si>
+  <si>
+    <t>C:\docs\CLM003.pdf</t>
+  </si>
+  <si>
+    <t>CUF365</t>
+  </si>
+  <si>
+    <t>CLM004</t>
+  </si>
+  <si>
+    <t>2024-07-22</t>
+  </si>
+  <si>
+    <t>C:\docs\CLM004.pdf</t>
+  </si>
+  <si>
+    <t>1911P4T5</t>
+  </si>
+  <si>
+    <t>CLM005</t>
+  </si>
+  <si>
+    <t>2025-04-11</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>C:\docs\CLM005.pdf</t>
+  </si>
+  <si>
+    <t>CCS912</t>
+  </si>
+  <si>
+    <t>CLM006</t>
+  </si>
+  <si>
+    <t>2024-09-10</t>
   </si>
   <si>
     <t>Malawi</t>
   </si>
   <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>C:\docs\claim45.pdf</t>
+    <t>C:\docs\CLM006.pdf</t>
+  </si>
+  <si>
+    <t>PAU486</t>
+  </si>
+  <si>
+    <t>CLM007</t>
+  </si>
+  <si>
+    <t>2025-06-28</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>C:\docs\CLM007.pdf</t>
+  </si>
+  <si>
+    <t>SLU036</t>
+  </si>
+  <si>
+    <t>CLM008</t>
+  </si>
+  <si>
+    <t>2025-07-16</t>
+  </si>
+  <si>
+    <t>C:\docs\CLM008.pdf</t>
+  </si>
+  <si>
+    <t>AB12!@</t>
+  </si>
+  <si>
+    <t>CLM009</t>
+  </si>
+  <si>
+    <t>2024-09-08</t>
+  </si>
+  <si>
+    <t>C:\docs\CLM009.pdf</t>
+  </si>
+  <si>
+    <t>CLM010</t>
+  </si>
+  <si>
+    <t>C:\docs\CLM010.pdf</t>
+  </si>
+  <si>
+    <t>RDS674</t>
+  </si>
+  <si>
+    <t>CLM011</t>
+  </si>
+  <si>
+    <t>2025-01-31</t>
+  </si>
+  <si>
+    <t>C:\docs\CLM011.pdf</t>
+  </si>
+  <si>
+    <t>IPY924</t>
+  </si>
+  <si>
+    <t>CLM012</t>
+  </si>
+  <si>
+    <t>2025-01-11</t>
+  </si>
+  <si>
+    <t>C:\docs\CLM012.pdf</t>
+  </si>
+  <si>
+    <t>DGX325</t>
+  </si>
+  <si>
+    <t>CLM013</t>
+  </si>
+  <si>
+    <t>2025-02-16</t>
+  </si>
+  <si>
+    <t>C:\docs\CLM013.pdf</t>
+  </si>
+  <si>
+    <t>ZUX576</t>
+  </si>
+  <si>
+    <t>CLM014</t>
+  </si>
+  <si>
+    <t>2025-03-02</t>
+  </si>
+  <si>
+    <t>C:\docs\CLM014.pdf</t>
+  </si>
+  <si>
+    <t>FRT593</t>
+  </si>
+  <si>
+    <t>CLM015</t>
+  </si>
+  <si>
+    <t>2024-08-07</t>
+  </si>
+  <si>
+    <t>Marine</t>
+  </si>
+  <si>
+    <t>C:\docs\CLM015.pdf</t>
   </si>
   <si>
     <t>12345!</t>
   </si>
   <si>
-    <t>CLM003</t>
+    <t>CLM016</t>
+  </si>
+  <si>
+    <t>2024-12-17</t>
+  </si>
+  <si>
+    <t>C:\docs\CLM016.pdf</t>
+  </si>
+  <si>
+    <t>XDN929</t>
+  </si>
+  <si>
+    <t>CLM017</t>
+  </si>
+  <si>
+    <t>2026-01-01</t>
+  </si>
+  <si>
+    <t>C:\docs\CLM017.pdf</t>
+  </si>
+  <si>
+    <t>CLM018</t>
+  </si>
+  <si>
+    <t>2025-02-01</t>
+  </si>
+  <si>
+    <t>C:\docs\CLM018.pdf</t>
+  </si>
+  <si>
+    <t>SAB587</t>
+  </si>
+  <si>
+    <t>CLM019</t>
+  </si>
+  <si>
+    <t>2025-05-25</t>
+  </si>
+  <si>
+    <t>C:\docs\CLM019.pdf</t>
+  </si>
+  <si>
+    <t>ZGN412</t>
+  </si>
+  <si>
+    <t>CLM020</t>
+  </si>
+  <si>
+    <t>30-07-2025</t>
+  </si>
+  <si>
+    <t>C:\docs\CLM020.pdf</t>
+  </si>
+  <si>
+    <t>IXJ287</t>
+  </si>
+  <si>
+    <t>CLM021</t>
+  </si>
+  <si>
+    <t>2025-01-17</t>
+  </si>
+  <si>
+    <t>C:\docs\CLM021.pdf</t>
+  </si>
+  <si>
+    <t>CLM022</t>
+  </si>
+  <si>
+    <t>C:\docs\CLM022.pdf</t>
+  </si>
+  <si>
+    <t>CLM023</t>
+  </si>
+  <si>
+    <t>C:\docs\CLM023.pdf</t>
+  </si>
+  <si>
+    <t>DIP048</t>
+  </si>
+  <si>
+    <t>CLM024</t>
+  </si>
+  <si>
+    <t>2024-10-22</t>
+  </si>
+  <si>
+    <t>C:\docs\CLM024.pdf</t>
+  </si>
+  <si>
+    <t>CLM025</t>
+  </si>
+  <si>
+    <t>2024-09-06</t>
+  </si>
+  <si>
+    <t>C:\docs\CLM025.pdf</t>
+  </si>
+  <si>
+    <t>IUF844</t>
+  </si>
+  <si>
+    <t>CLM026</t>
+  </si>
+  <si>
+    <t>2025-07-24</t>
+  </si>
+  <si>
+    <t>C:\docs\CLM026.pdf</t>
+  </si>
+  <si>
+    <t>CLM027</t>
+  </si>
+  <si>
+    <t>C:\docs\CLM027.pdf</t>
+  </si>
+  <si>
+    <t>CLM028</t>
+  </si>
+  <si>
+    <t>2025-04-29</t>
+  </si>
+  <si>
+    <t>C:\docs\CLM028.pdf</t>
+  </si>
+  <si>
+    <t>FDL161</t>
+  </si>
+  <si>
+    <t>CLM029</t>
+  </si>
+  <si>
+    <t>C:\docs\CLM029.pdf</t>
+  </si>
+  <si>
+    <t>GWF556</t>
+  </si>
+  <si>
+    <t>CLM030</t>
+  </si>
+  <si>
+    <t>2024-12-08</t>
+  </si>
+  <si>
+    <t>C:\docs\CLM030.pdf</t>
+  </si>
+  <si>
+    <t>PUQ068</t>
+  </si>
+  <si>
+    <t>CLM031</t>
+  </si>
+  <si>
+    <t>2024-10-07</t>
+  </si>
+  <si>
+    <t>TXK149</t>
+  </si>
+  <si>
+    <t>CLM032</t>
+  </si>
+  <si>
+    <t>2024-11-04</t>
+  </si>
+  <si>
+    <t>C:\docs\CLM032.pdf</t>
+  </si>
+  <si>
+    <t>DDC653</t>
+  </si>
+  <si>
+    <t>CLM033</t>
+  </si>
+  <si>
+    <t>2024-10-24</t>
+  </si>
+  <si>
+    <t>C:\docs\CLM033.pdf</t>
+  </si>
+  <si>
+    <t>R84YF303</t>
+  </si>
+  <si>
+    <t>CLM034</t>
+  </si>
+  <si>
+    <t>C:\docs\CLM034.pdf</t>
+  </si>
+  <si>
+    <t>UWAR</t>
+  </si>
+  <si>
+    <t>CLM035</t>
+  </si>
+  <si>
+    <t>2025-02-08</t>
+  </si>
+  <si>
+    <t>C:\docs\CLM035.pdf</t>
+  </si>
+  <si>
+    <t>BWO592</t>
+  </si>
+  <si>
+    <t>CLM036</t>
+  </si>
+  <si>
+    <t>2024-11-06</t>
+  </si>
+  <si>
+    <t>C:\docs\CLM036.pdf</t>
+  </si>
+  <si>
+    <t>EKO384</t>
+  </si>
+  <si>
+    <t>CLM037</t>
+  </si>
+  <si>
+    <t>2025-06-05</t>
+  </si>
+  <si>
+    <t>OFJ083</t>
+  </si>
+  <si>
+    <t>CLM038</t>
+  </si>
+  <si>
+    <t>2025-03-10</t>
+  </si>
+  <si>
+    <t>C:\docs\CLM038.pdf</t>
+  </si>
+  <si>
+    <t>BES712</t>
+  </si>
+  <si>
+    <t>CLM039</t>
+  </si>
+  <si>
+    <t>2024-11-17</t>
+  </si>
+  <si>
+    <t>QIX489</t>
+  </si>
+  <si>
+    <t>CLM040</t>
+  </si>
+  <si>
+    <t>2025-01-23</t>
+  </si>
+  <si>
+    <t>C:\docs\CLM040.pdf</t>
+  </si>
+  <si>
+    <t>ELE961</t>
+  </si>
+  <si>
+    <t>CLM041</t>
+  </si>
+  <si>
+    <t>2024-10-08</t>
+  </si>
+  <si>
+    <t>C:\docs\CLM041.pdf</t>
+  </si>
+  <si>
+    <t>JHW988</t>
+  </si>
+  <si>
+    <t>CLM042</t>
+  </si>
+  <si>
+    <t>2024-12-15</t>
+  </si>
+  <si>
+    <t>C:\docs\CLM042.pdf</t>
+  </si>
+  <si>
+    <t>KFB959</t>
+  </si>
+  <si>
+    <t>CLM043</t>
+  </si>
+  <si>
+    <t>2024-11-28</t>
+  </si>
+  <si>
+    <t>C:\docs\CLM043.pdf</t>
+  </si>
+  <si>
+    <t>XBZ088</t>
+  </si>
+  <si>
+    <t>CLM044</t>
+  </si>
+  <si>
+    <t>2025-01-07</t>
+  </si>
+  <si>
+    <t>C:\docs\CLM044.pdf</t>
+  </si>
+  <si>
+    <t>ICV760</t>
+  </si>
+  <si>
+    <t>CLM045</t>
+  </si>
+  <si>
+    <t>2024-08-15</t>
+  </si>
+  <si>
+    <t>C:\docs\CLM045.pdf</t>
+  </si>
+  <si>
+    <t>DYG769</t>
+  </si>
+  <si>
+    <t>CLM046</t>
+  </si>
+  <si>
+    <t>2025-02-04</t>
+  </si>
+  <si>
+    <t>GWA564</t>
+  </si>
+  <si>
+    <t>CLM047</t>
+  </si>
+  <si>
+    <t>2025-03-29</t>
+  </si>
+  <si>
+    <t>C:\docs\CLM047.pdf</t>
+  </si>
+  <si>
+    <t>FEG413</t>
+  </si>
+  <si>
+    <t>CLM048</t>
+  </si>
+  <si>
+    <t>2024-09-20</t>
+  </si>
+  <si>
+    <t>TGZ705</t>
+  </si>
+  <si>
+    <t>CLM049</t>
+  </si>
+  <si>
+    <t>C:\docs\CLM049.pdf</t>
+  </si>
+  <si>
+    <t>VIQ142</t>
+  </si>
+  <si>
+    <t>CLM050</t>
+  </si>
+  <si>
+    <t>2024-08-30</t>
+  </si>
+  <si>
+    <t>C:\docs\CLM050.pdf</t>
+  </si>
+  <si>
+    <t>VQZ139</t>
+  </si>
+  <si>
+    <t>CLM051</t>
+  </si>
+  <si>
+    <t>C:\docs\CLM051.pdf</t>
+  </si>
+  <si>
+    <t>NTE445</t>
+  </si>
+  <si>
+    <t>CLM052</t>
+  </si>
+  <si>
+    <t>2025-07-21</t>
+  </si>
+  <si>
+    <t>C:\docs\CLM052.pdf</t>
+  </si>
+  <si>
+    <t>KTX849</t>
+  </si>
+  <si>
+    <t>CLM053</t>
+  </si>
+  <si>
+    <t>2025-06-06</t>
+  </si>
+  <si>
+    <t>C:\docs\CLM053.pdf</t>
+  </si>
+  <si>
+    <t>E9736FM7</t>
+  </si>
+  <si>
+    <t>CLM054</t>
+  </si>
+  <si>
+    <t>Life</t>
+  </si>
+  <si>
+    <t>C:\docs\CLM054.pdf</t>
+  </si>
+  <si>
+    <t>JNJ643</t>
+  </si>
+  <si>
+    <t>CLM055</t>
+  </si>
+  <si>
+    <t>2024-09-13</t>
+  </si>
+  <si>
+    <t>C:\docs\CLM055.pdf</t>
+  </si>
+  <si>
+    <t>VZE064</t>
+  </si>
+  <si>
+    <t>CLM056</t>
+  </si>
+  <si>
+    <t>2025-03-24</t>
+  </si>
+  <si>
+    <t>C:\docs\CLM056.pdf</t>
+  </si>
+  <si>
+    <t>CYZ704</t>
+  </si>
+  <si>
+    <t>CLM057</t>
+  </si>
+  <si>
+    <t>2025-02-13</t>
+  </si>
+  <si>
+    <t>C:\docs\CLM057.pdf</t>
+  </si>
+  <si>
+    <t>THK609</t>
+  </si>
+  <si>
+    <t>CLM058</t>
+  </si>
+  <si>
+    <t>C:\docs\CLM058.pdf</t>
+  </si>
+  <si>
+    <t>AEI540</t>
+  </si>
+  <si>
+    <t>CLM059</t>
+  </si>
+  <si>
+    <t>2025-05-02</t>
+  </si>
+  <si>
+    <t>BAC741</t>
+  </si>
+  <si>
+    <t>CLM060</t>
+  </si>
+  <si>
+    <t>2025-03-16</t>
+  </si>
+  <si>
+    <t>C:\docs\CLM060.pdf</t>
+  </si>
+  <si>
+    <t>GVV803</t>
+  </si>
+  <si>
+    <t>CLM061</t>
+  </si>
+  <si>
+    <t>2024-10-29</t>
+  </si>
+  <si>
+    <t>C:\docs\CLM061.pdf</t>
+  </si>
+  <si>
+    <t>CLM062</t>
+  </si>
+  <si>
+    <t>C:\docs\CLM062.pdf</t>
+  </si>
+  <si>
+    <t>AHP919</t>
+  </si>
+  <si>
+    <t>CLM063</t>
+  </si>
+  <si>
+    <t>2025-06-11</t>
+  </si>
+  <si>
+    <t>C:\docs\CLM063.pdf</t>
+  </si>
+  <si>
+    <t>ACG739</t>
+  </si>
+  <si>
+    <t>CLM064</t>
+  </si>
+  <si>
+    <t>C:\docs\CLM064.pdf</t>
+  </si>
+  <si>
+    <t>IGQ686</t>
+  </si>
+  <si>
+    <t>CLM065</t>
+  </si>
+  <si>
+    <t>2025-05-27</t>
+  </si>
+  <si>
+    <t>C:\docs\CLM065.pdf</t>
+  </si>
+  <si>
+    <t>ZTK184</t>
+  </si>
+  <si>
+    <t>CLM066</t>
+  </si>
+  <si>
+    <t>2024-10-12</t>
+  </si>
+  <si>
+    <t>C:\docs\CLM066.pdf</t>
+  </si>
+  <si>
+    <t>SOG898</t>
+  </si>
+  <si>
+    <t>CLM067</t>
+  </si>
+  <si>
+    <t>2025-06-09</t>
+  </si>
+  <si>
+    <t>C:\docs\CLM067.pdf</t>
+  </si>
+  <si>
+    <t>KRZ366</t>
+  </si>
+  <si>
+    <t>CLM068</t>
+  </si>
+  <si>
+    <t>2024-07-24</t>
+  </si>
+  <si>
+    <t>C:\docs\CLM068.pdf</t>
+  </si>
+  <si>
+    <t>YEP363</t>
+  </si>
+  <si>
+    <t>CLM069</t>
+  </si>
+  <si>
+    <t>2024-08-06</t>
+  </si>
+  <si>
+    <t>C:\docs\CLM069.pdf</t>
+  </si>
+  <si>
+    <t>EYS965</t>
+  </si>
+  <si>
+    <t>CLM070</t>
+  </si>
+  <si>
+    <t>C:\docs\CLM070.pdf</t>
+  </si>
+  <si>
+    <t>IPQ542</t>
+  </si>
+  <si>
+    <t>CLM071</t>
+  </si>
+  <si>
+    <t>2024-08-01</t>
+  </si>
+  <si>
+    <t>invalid_path</t>
+  </si>
+  <si>
+    <t>F60G</t>
+  </si>
+  <si>
+    <t>CLM072</t>
+  </si>
+  <si>
+    <t>2025-01-22</t>
+  </si>
+  <si>
+    <t>C:\docs\CLM072.pdf</t>
+  </si>
+  <si>
+    <t>YRM071</t>
+  </si>
+  <si>
+    <t>CLM073</t>
   </si>
   <si>
     <t>2024-10-10</t>
   </si>
   <si>
-    <t>Kenya</t>
-  </si>
-  <si>
-    <t>C:\docs\claim16.pdf</t>
-  </si>
-  <si>
-    <t>I80I</t>
-  </si>
-  <si>
-    <t>CLM004</t>
-  </si>
-  <si>
-    <t>2026-01-01</t>
-  </si>
-  <si>
-    <t>Auto</t>
-  </si>
-  <si>
-    <t>C:\docs\claim79.pdf</t>
-  </si>
-  <si>
-    <t>UVKCKH</t>
-  </si>
-  <si>
-    <t>CLM005</t>
-  </si>
-  <si>
-    <t>Travel</t>
-  </si>
-  <si>
-    <t>C:\docs\claim86.pdf</t>
-  </si>
-  <si>
-    <t>G0Z02T</t>
-  </si>
-  <si>
-    <t>CLM006</t>
-  </si>
-  <si>
-    <t>2024-12-27</t>
-  </si>
-  <si>
-    <t>Health</t>
-  </si>
-  <si>
-    <t>7OQP3M</t>
-  </si>
-  <si>
-    <t>CLM007</t>
-  </si>
-  <si>
-    <t>2024-11-14</t>
-  </si>
-  <si>
-    <t>Nairobi</t>
-  </si>
-  <si>
-    <t>C:\docs\claim4.pdf</t>
-  </si>
-  <si>
-    <t>8K8QYFOI</t>
-  </si>
-  <si>
-    <t>CLM008</t>
-  </si>
-  <si>
-    <t>2025-02-10</t>
-  </si>
-  <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>C:\docs\claim53.pdf</t>
-  </si>
-  <si>
-    <t>QHM6</t>
-  </si>
-  <si>
-    <t>CLM009</t>
-  </si>
-  <si>
-    <t>22-07-2025</t>
-  </si>
-  <si>
-    <t>Motor</t>
-  </si>
-  <si>
-    <t>C:\docs\claim46.pdf</t>
-  </si>
-  <si>
-    <t>*,+&lt;&amp;&lt;</t>
-  </si>
-  <si>
-    <t>CLM010</t>
+    <t>C:\docs\CLM073.pdf</t>
+  </si>
+  <si>
+    <t>6SEH</t>
+  </si>
+  <si>
+    <t>CLM074</t>
+  </si>
+  <si>
+    <t>C:\docs\CLM074.pdf</t>
+  </si>
+  <si>
+    <t>GCH362</t>
+  </si>
+  <si>
+    <t>CLM075</t>
   </si>
   <si>
     <t>2024-07-29</t>
   </si>
   <si>
-    <t>Zambia</t>
-  </si>
-  <si>
-    <t>C:\docs\claim74.pdf</t>
-  </si>
-  <si>
-    <t>CLM011</t>
-  </si>
-  <si>
-    <t>2024-11-17</t>
-  </si>
-  <si>
-    <t>C:\docs\claim94.pdf</t>
-  </si>
-  <si>
-    <t>65C6LW</t>
-  </si>
-  <si>
-    <t>CLM012</t>
-  </si>
-  <si>
-    <t>KAVCGE</t>
-  </si>
-  <si>
-    <t>CLM013</t>
-  </si>
-  <si>
-    <t>2025-05-03</t>
-  </si>
-  <si>
-    <t>C:\docs\claim98.pdf</t>
-  </si>
-  <si>
-    <t>[^!:]%</t>
-  </si>
-  <si>
-    <t>CLM014</t>
-  </si>
-  <si>
-    <t>2024-08-06</t>
-  </si>
-  <si>
-    <t>C:\docs\claim48.pdf</t>
-  </si>
-  <si>
-    <t>'"(*![</t>
-  </si>
-  <si>
-    <t>CLM015</t>
-  </si>
-  <si>
-    <t>2024-10-31</t>
-  </si>
-  <si>
-    <t>C:\docs\claim49.pdf</t>
-  </si>
-  <si>
-    <t>D6664J</t>
-  </si>
-  <si>
-    <t>CLM016</t>
-  </si>
-  <si>
-    <t>C:\docs\claim13.pdf</t>
-  </si>
-  <si>
-    <t>&lt;\?;&amp;.</t>
-  </si>
-  <si>
-    <t>CLM017</t>
-  </si>
-  <si>
-    <t>QW3P6K</t>
-  </si>
-  <si>
-    <t>CLM018</t>
-  </si>
-  <si>
-    <t>5MID84</t>
-  </si>
-  <si>
-    <t>CLM019</t>
-  </si>
-  <si>
-    <t>2025-04-23</t>
-  </si>
-  <si>
-    <t>C:\docs\claim6.pdf</t>
-  </si>
-  <si>
-    <t>3IJANP</t>
-  </si>
-  <si>
-    <t>CLM020</t>
-  </si>
-  <si>
-    <t>2025-02-22</t>
-  </si>
-  <si>
-    <t>K4CV75</t>
-  </si>
-  <si>
-    <t>CLM021</t>
-  </si>
-  <si>
-    <t>CLM022</t>
-  </si>
-  <si>
-    <t>2025-06-06</t>
-  </si>
-  <si>
-    <t>C:\docs\claim68.pdf</t>
-  </si>
-  <si>
-    <t>CLM023</t>
-  </si>
-  <si>
-    <t>2025-03-04</t>
-  </si>
-  <si>
-    <t>6TE9WW</t>
-  </si>
-  <si>
-    <t>CLM024</t>
-  </si>
-  <si>
-    <t>2024-08-23</t>
-  </si>
-  <si>
-    <t>Tanzania</t>
-  </si>
-  <si>
-    <t>C:\docs\claim8.pdf</t>
-  </si>
-  <si>
-    <t>1TRC5D</t>
-  </si>
-  <si>
-    <t>CLM025</t>
-  </si>
-  <si>
-    <t>2024-12-25</t>
-  </si>
-  <si>
-    <t>8KJM5Q</t>
-  </si>
-  <si>
-    <t>CLM026</t>
-  </si>
-  <si>
-    <t>C:\docs\claim10.pdf</t>
-  </si>
-  <si>
-    <t>FGHZRP</t>
-  </si>
-  <si>
-    <t>CLM027</t>
-  </si>
-  <si>
-    <t>2024-11-16</t>
-  </si>
-  <si>
-    <t>C:\docs\claim92.pdf</t>
-  </si>
-  <si>
-    <t>CLM028</t>
-  </si>
-  <si>
-    <t>2025-01-01</t>
-  </si>
-  <si>
-    <t>invalid_path</t>
-  </si>
-  <si>
-    <t>BV7A</t>
-  </si>
-  <si>
-    <t>CLM029</t>
-  </si>
-  <si>
-    <t>2024-09-30</t>
-  </si>
-  <si>
-    <t>C:\docs\claim20.pdf</t>
-  </si>
-  <si>
-    <t>01EXUE</t>
-  </si>
-  <si>
-    <t>CLM030</t>
-  </si>
-  <si>
-    <t>2025-04-17</t>
-  </si>
-  <si>
-    <t>F89OZD</t>
-  </si>
-  <si>
-    <t>CLM031</t>
-  </si>
-  <si>
-    <t>2025-07-10</t>
-  </si>
-  <si>
-    <t>92Y59FYG</t>
-  </si>
-  <si>
-    <t>CLM032</t>
-  </si>
-  <si>
-    <t>2024-11-23</t>
-  </si>
-  <si>
-    <t>Life</t>
-  </si>
-  <si>
-    <t>C:\docs\claim29.pdf</t>
-  </si>
-  <si>
-    <t>XI1LOM</t>
-  </si>
-  <si>
-    <t>CLM033</t>
-  </si>
-  <si>
-    <t>LL34QA</t>
-  </si>
-  <si>
-    <t>CLM034</t>
-  </si>
-  <si>
-    <t>2024-10-13</t>
-  </si>
-  <si>
-    <t>XOA9FF</t>
-  </si>
-  <si>
-    <t>CLM035</t>
-  </si>
-  <si>
-    <t>2024-12-04</t>
-  </si>
-  <si>
-    <t>C:\docs\claim9.pdf</t>
-  </si>
-  <si>
-    <t>R5GDYS</t>
-  </si>
-  <si>
-    <t>CLM036</t>
-  </si>
-  <si>
-    <t>2024-12-10</t>
-  </si>
-  <si>
-    <t>KYFZ3E</t>
-  </si>
-  <si>
-    <t>CLM037</t>
-  </si>
-  <si>
-    <t>2025-05-18</t>
-  </si>
-  <si>
-    <t>C:\docs\claim47.pdf</t>
-  </si>
-  <si>
-    <t>WVXV</t>
-  </si>
-  <si>
-    <t>CLM038</t>
-  </si>
-  <si>
-    <t>2025-04-30</t>
-  </si>
-  <si>
-    <t>C:\docs\claim26.pdf</t>
-  </si>
-  <si>
-    <t>ARWOQP</t>
-  </si>
-  <si>
-    <t>CLM039</t>
+    <t>C:\docs\CLM075.pdf</t>
+  </si>
+  <si>
+    <t>CYE889</t>
+  </si>
+  <si>
+    <t>CLM076</t>
+  </si>
+  <si>
+    <t>2025-06-22</t>
+  </si>
+  <si>
+    <t>C:\docs\CLM076.pdf</t>
+  </si>
+  <si>
+    <t>HXI259</t>
+  </si>
+  <si>
+    <t>CLM077</t>
+  </si>
+  <si>
+    <t>C:\docs\CLM077.pdf</t>
+  </si>
+  <si>
+    <t>OOC454</t>
+  </si>
+  <si>
+    <t>CLM078</t>
+  </si>
+  <si>
+    <t>C:\docs\CLM078.pdf</t>
+  </si>
+  <si>
+    <t>OPD489</t>
+  </si>
+  <si>
+    <t>CLM079</t>
+  </si>
+  <si>
+    <t>C:\docs\CLM079.pdf</t>
+  </si>
+  <si>
+    <t>CUC141</t>
+  </si>
+  <si>
+    <t>CLM080</t>
+  </si>
+  <si>
+    <t>C:\docs\CLM080.pdf</t>
+  </si>
+  <si>
+    <t>XEG448</t>
+  </si>
+  <si>
+    <t>CLM081</t>
+  </si>
+  <si>
+    <t>2024-10-11</t>
+  </si>
+  <si>
+    <t>C:\docs\CLM081.pdf</t>
+  </si>
+  <si>
+    <t>ORP322</t>
+  </si>
+  <si>
+    <t>CLM082</t>
+  </si>
+  <si>
+    <t>2025-01-24</t>
+  </si>
+  <si>
+    <t>C:\docs\CLM082.pdf</t>
+  </si>
+  <si>
+    <t>FRM541</t>
+  </si>
+  <si>
+    <t>CLM083</t>
+  </si>
+  <si>
+    <t>C:\docs\CLM083.pdf</t>
+  </si>
+  <si>
+    <t>YDG333</t>
+  </si>
+  <si>
+    <t>CLM084</t>
+  </si>
+  <si>
+    <t>2025-07-23</t>
+  </si>
+  <si>
+    <t>C:\docs\CLM084.pdf</t>
+  </si>
+  <si>
+    <t>IZV322</t>
+  </si>
+  <si>
+    <t>CLM085</t>
+  </si>
+  <si>
+    <t>2024-08-31</t>
+  </si>
+  <si>
+    <t>C:\docs\CLM085.pdf</t>
+  </si>
+  <si>
+    <t>RMQ453</t>
+  </si>
+  <si>
+    <t>CLM086</t>
   </si>
   <si>
     <t>2025-06-14</t>
   </si>
   <si>
-    <t>K2EVP8</t>
-  </si>
-  <si>
-    <t>CLM040</t>
-  </si>
-  <si>
-    <t>C:\docs\claim84.pdf</t>
-  </si>
-  <si>
-    <t>ZTUN0T</t>
-  </si>
-  <si>
-    <t>CLM041</t>
-  </si>
-  <si>
-    <t>PFZEVW</t>
-  </si>
-  <si>
-    <t>CLM042</t>
-  </si>
-  <si>
-    <t>2025-06-24</t>
-  </si>
-  <si>
-    <t>KM84KR</t>
-  </si>
-  <si>
-    <t>CLM043</t>
-  </si>
-  <si>
-    <t>C:\docs\claim81.pdf</t>
-  </si>
-  <si>
-    <t>SRJG85</t>
-  </si>
-  <si>
-    <t>CLM044</t>
-  </si>
-  <si>
-    <t>C:\docs\claim75.pdf</t>
-  </si>
-  <si>
-    <t>976FIK</t>
-  </si>
-  <si>
-    <t>CLM045</t>
-  </si>
-  <si>
-    <t>Y2D1</t>
-  </si>
-  <si>
-    <t>CLM046</t>
-  </si>
-  <si>
-    <t>2025-01-28</t>
-  </si>
-  <si>
-    <t>C:\docs\claim14.pdf</t>
-  </si>
-  <si>
-    <t>VOQCAI</t>
-  </si>
-  <si>
-    <t>CLM047</t>
-  </si>
-  <si>
-    <t>C:\docs\claim66.pdf</t>
-  </si>
-  <si>
-    <t>7E35VD</t>
-  </si>
-  <si>
-    <t>CLM048</t>
-  </si>
-  <si>
-    <t>2024-10-11</t>
-  </si>
-  <si>
-    <t>?`/!#`</t>
-  </si>
-  <si>
-    <t>CLM049</t>
-  </si>
-  <si>
-    <t>2024-07-25</t>
-  </si>
-  <si>
-    <t>2M9S0S</t>
-  </si>
-  <si>
-    <t>CLM050</t>
-  </si>
-  <si>
-    <t>2024-08-29</t>
-  </si>
-  <si>
-    <t>C:\docs\claim71.pdf</t>
-  </si>
-  <si>
-    <t>@}!?&amp;&amp;</t>
-  </si>
-  <si>
-    <t>CLM051</t>
-  </si>
-  <si>
-    <t>2025-04-28</t>
-  </si>
-  <si>
-    <t>C:\docs\claim69.pdf</t>
-  </si>
-  <si>
-    <t>SAJRPZ</t>
-  </si>
-  <si>
-    <t>CLM052</t>
-  </si>
-  <si>
-    <t>CLM053</t>
-  </si>
-  <si>
-    <t>2024-07-26</t>
-  </si>
-  <si>
-    <t>C:\docs\claim70.pdf</t>
-  </si>
-  <si>
-    <t>22U3XY</t>
-  </si>
-  <si>
-    <t>CLM054</t>
-  </si>
-  <si>
-    <t>2024-10-01</t>
-  </si>
-  <si>
-    <t>GIC4QF</t>
-  </si>
-  <si>
-    <t>CLM055</t>
-  </si>
-  <si>
-    <t>2025-06-28</t>
-  </si>
-  <si>
-    <t>VH8AWO</t>
-  </si>
-  <si>
-    <t>CLM056</t>
-  </si>
-  <si>
-    <t>C:\docs\claim22.pdf</t>
-  </si>
-  <si>
-    <t>CLM057</t>
-  </si>
-  <si>
-    <t>2025-03-15</t>
-  </si>
-  <si>
-    <t>C:\docs\claim57.pdf</t>
-  </si>
-  <si>
-    <t>WQ3248GG</t>
-  </si>
-  <si>
-    <t>CLM058</t>
-  </si>
-  <si>
-    <t>2025-05-05</t>
-  </si>
-  <si>
-    <t>XXN68Y</t>
-  </si>
-  <si>
-    <t>CLM059</t>
-  </si>
-  <si>
-    <t>2024-10-03</t>
-  </si>
-  <si>
-    <t>1E45KM</t>
-  </si>
-  <si>
-    <t>CLM060</t>
-  </si>
-  <si>
-    <t>2025-01-16</t>
-  </si>
-  <si>
-    <t>C9CI</t>
-  </si>
-  <si>
-    <t>CLM061</t>
-  </si>
-  <si>
-    <t>I2BXH4</t>
-  </si>
-  <si>
-    <t>CLM062</t>
-  </si>
-  <si>
-    <t>TDHW3T</t>
-  </si>
-  <si>
-    <t>CLM063</t>
-  </si>
-  <si>
-    <t>2025-01-24</t>
-  </si>
-  <si>
-    <t>C:\docs\claim15.pdf</t>
-  </si>
-  <si>
-    <t>HKEPXY</t>
-  </si>
-  <si>
-    <t>CLM064</t>
-  </si>
-  <si>
-    <t>C:\docs\claim96.pdf</t>
-  </si>
-  <si>
-    <t>98ZYMI</t>
-  </si>
-  <si>
-    <t>CLM065</t>
-  </si>
-  <si>
-    <t>2025-06-27</t>
-  </si>
-  <si>
-    <t>C:\docs\claim36.pdf</t>
-  </si>
-  <si>
-    <t>MMETFWT5</t>
-  </si>
-  <si>
-    <t>CLM066</t>
-  </si>
-  <si>
-    <t>2025-04-02</t>
-  </si>
-  <si>
-    <t>7S096B</t>
-  </si>
-  <si>
-    <t>CLM067</t>
-  </si>
-  <si>
-    <t>2025-02-12</t>
-  </si>
-  <si>
-    <t>5PCM3RB0</t>
-  </si>
-  <si>
-    <t>CLM068</t>
-  </si>
-  <si>
-    <t>C:\docs\claim43.pdf</t>
-  </si>
-  <si>
-    <t>OL58GS</t>
-  </si>
-  <si>
-    <t>CLM069</t>
-  </si>
-  <si>
-    <t>2025-01-26</t>
-  </si>
-  <si>
-    <t>LVROZC</t>
-  </si>
-  <si>
-    <t>CLM070</t>
-  </si>
-  <si>
-    <t>WCFQK9</t>
-  </si>
-  <si>
-    <t>CLM071</t>
-  </si>
-  <si>
-    <t>P5GOXC</t>
-  </si>
-  <si>
-    <t>CLM072</t>
-  </si>
-  <si>
-    <t>C:\docs\claim5.pdf</t>
-  </si>
-  <si>
-    <t>YSIMIB</t>
-  </si>
-  <si>
-    <t>CLM073</t>
-  </si>
-  <si>
-    <t>2025-01-17</t>
-  </si>
-  <si>
-    <t>CLM074</t>
-  </si>
-  <si>
-    <t>C:\docs\claim62.pdf</t>
-  </si>
-  <si>
-    <t>D7DRPB</t>
-  </si>
-  <si>
-    <t>CLM075</t>
-  </si>
-  <si>
-    <t>CGI3</t>
-  </si>
-  <si>
-    <t>CLM076</t>
-  </si>
-  <si>
-    <t>2025-05-29</t>
-  </si>
-  <si>
-    <t>B7G9B6</t>
-  </si>
-  <si>
-    <t>CLM077</t>
-  </si>
-  <si>
-    <t>C:\docs\claim93.pdf</t>
-  </si>
-  <si>
-    <t>AGY3TRZY</t>
-  </si>
-  <si>
-    <t>CLM078</t>
-  </si>
-  <si>
-    <t>2024-10-30</t>
-  </si>
-  <si>
-    <t>X7BMXQ</t>
-  </si>
-  <si>
-    <t>CLM079</t>
-  </si>
-  <si>
-    <t>2025-07-17</t>
-  </si>
-  <si>
-    <t>CLM080</t>
-  </si>
-  <si>
-    <t>C:\docs\claim40.pdf</t>
-  </si>
-  <si>
-    <t>YR3RVC</t>
-  </si>
-  <si>
-    <t>CLM081</t>
-  </si>
-  <si>
-    <t>2024-12-05</t>
-  </si>
-  <si>
-    <t>C:\docs\claim77.pdf</t>
-  </si>
-  <si>
-    <t>Z7VUBD</t>
-  </si>
-  <si>
-    <t>CLM082</t>
-  </si>
-  <si>
-    <t>EYXCMX</t>
-  </si>
-  <si>
-    <t>CLM083</t>
-  </si>
-  <si>
-    <t>C:\docs\claim51.pdf</t>
-  </si>
-  <si>
-    <t>E9ZKNG1H</t>
-  </si>
-  <si>
-    <t>CLM084</t>
-  </si>
-  <si>
-    <t>F9RMQQ</t>
-  </si>
-  <si>
-    <t>CLM085</t>
-  </si>
-  <si>
-    <t>2025-06-18</t>
-  </si>
-  <si>
-    <t>03NZYQ</t>
-  </si>
-  <si>
-    <t>CLM086</t>
-  </si>
-  <si>
-    <t>Y63Z0A</t>
+    <t>PWQ920</t>
   </si>
   <si>
     <t>CLM087</t>
   </si>
   <si>
-    <t>2025-04-21</t>
-  </si>
-  <si>
-    <t>2M4I</t>
+    <t>C:\docs\CLM087.pdf</t>
+  </si>
+  <si>
+    <t>MJE126</t>
   </si>
   <si>
     <t>CLM088</t>
   </si>
   <si>
-    <t>2025-06-16</t>
-  </si>
-  <si>
-    <t>C:\docs\claim60.pdf</t>
-  </si>
-  <si>
-    <t>MKSQO3</t>
+    <t>C:\docs\CLM088.pdf</t>
+  </si>
+  <si>
+    <t>WGV032</t>
   </si>
   <si>
     <t>CLM089</t>
   </si>
   <si>
-    <t>C:\docs\claim88.pdf</t>
-  </si>
-  <si>
-    <t>RBR7828J</t>
+    <t>C:\docs\CLM089.pdf</t>
+  </si>
+  <si>
+    <t>HVU855</t>
   </si>
   <si>
     <t>CLM090</t>
   </si>
   <si>
-    <t>2025-06-04</t>
-  </si>
-  <si>
-    <t>C:\docs\claim50.pdf</t>
-  </si>
-  <si>
-    <t>P6IV3E</t>
+    <t>2025-01-12</t>
+  </si>
+  <si>
+    <t>C:\docs\CLM090.pdf</t>
+  </si>
+  <si>
+    <t>KLP956</t>
   </si>
   <si>
     <t>CLM091</t>
   </si>
   <si>
-    <t>C:\docs\claim32.pdf</t>
-  </si>
-  <si>
-    <t>L2BKLR</t>
+    <t>2025-06-12</t>
+  </si>
+  <si>
+    <t>C:\docs\CLM091.pdf</t>
+  </si>
+  <si>
+    <t>NMA586</t>
   </si>
   <si>
     <t>CLM092</t>
   </si>
   <si>
-    <t>2025-05-30</t>
+    <t>2024-10-19</t>
+  </si>
+  <si>
+    <t>GLO388</t>
   </si>
   <si>
     <t>CLM093</t>
   </si>
   <si>
-    <t>2025-04-26</t>
-  </si>
-  <si>
-    <t>C:\docs\claim35.pdf</t>
-  </si>
-  <si>
-    <t>AVUUZU</t>
+    <t>2025-05-23</t>
+  </si>
+  <si>
+    <t>QFF646</t>
   </si>
   <si>
     <t>CLM094</t>
   </si>
   <si>
-    <t>06OI</t>
+    <t>C:\docs\CLM094.pdf</t>
+  </si>
+  <si>
+    <t>DOF173</t>
   </si>
   <si>
     <t>CLM095</t>
   </si>
   <si>
-    <t>2025-05-26</t>
-  </si>
-  <si>
-    <t>ZQRI6N</t>
+    <t>QYY212</t>
   </si>
   <si>
     <t>CLM096</t>
   </si>
   <si>
-    <t>LJWN2D</t>
+    <t>2025-02-24</t>
+  </si>
+  <si>
+    <t>CUR756</t>
   </si>
   <si>
     <t>CLM097</t>
   </si>
   <si>
-    <t>GETVUX</t>
+    <t>2025-03-23</t>
+  </si>
+  <si>
+    <t>C:\docs\CLM097.pdf</t>
+  </si>
+  <si>
+    <t>RUB074</t>
   </si>
   <si>
     <t>CLM098</t>
   </si>
   <si>
-    <t>C:\docs\claim65.pdf</t>
-  </si>
-  <si>
-    <t>JNL7D7</t>
+    <t>C:\docs\CLM098.pdf</t>
+  </si>
+  <si>
+    <t>YLJ250</t>
   </si>
   <si>
     <t>CLM099</t>
   </si>
   <si>
-    <t>2024-09-21</t>
-  </si>
-  <si>
-    <t>[-]&lt;"`</t>
+    <t>2024-12-07</t>
+  </si>
+  <si>
+    <t>C:\docs\CLM099.pdf</t>
+  </si>
+  <si>
+    <t>EPB276</t>
   </si>
   <si>
     <t>CLM100</t>
   </si>
   <si>
-    <t>2024-08-25</t>
+    <t>2025-07-11</t>
   </si>
 </sst>
 </file>
@@ -1362,19 +1503,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1408,7 +1549,7 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>303718.3</v>
+        <v>177439.6</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -1419,27 +1560,27 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3">
-        <v>495521.96</v>
+        <v>797110.96</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1451,16 +1592,16 @@
         <v>19</v>
       </c>
       <c r="C4">
-        <v>252082.75</v>
+        <v>893171.37</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
         <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
       </c>
       <c r="G4" t="s">
         <v>22</v>
@@ -1474,128 +1615,131 @@
         <v>24</v>
       </c>
       <c r="C5">
-        <v>972288.01</v>
+        <v>569517.17000000004</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
         <v>21</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>26</v>
-      </c>
-      <c r="G5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6">
+        <v>484403.33</v>
+      </c>
+      <c r="D6" t="s">
         <v>29</v>
       </c>
-      <c r="C6">
-        <v>832410.08</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7">
-        <v>267482.03999999998</v>
+        <v>61197.85</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C8">
-        <v>626414.82999999996</v>
+        <v>25979.82</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C9">
-        <v>555185.91</v>
+        <v>928259.34</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C10">
-        <v>839847.38</v>
+        <v>837035.23</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="G10" t="s">
         <v>50</v>
@@ -1603,71 +1747,71 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" t="s">
         <v>51</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11">
+        <v>238373.34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
         <v>52</v>
-      </c>
-      <c r="C11">
-        <v>661476.27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12">
+        <v>910791.82</v>
+      </c>
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s">
         <v>56</v>
-      </c>
-      <c r="C12">
-        <v>713447.34</v>
-      </c>
-      <c r="D12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13">
+        <v>73517.75</v>
+      </c>
+      <c r="D13" t="s">
         <v>59</v>
       </c>
-      <c r="B13" t="s">
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
         <v>60</v>
-      </c>
-      <c r="C13">
-        <v>229844.53</v>
-      </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1678,16 +1822,16 @@
         <v>62</v>
       </c>
       <c r="C14">
-        <v>244459.91</v>
+        <v>440645.27</v>
       </c>
       <c r="D14" t="s">
         <v>63</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G14" t="s">
         <v>64</v>
@@ -1701,16 +1845,16 @@
         <v>66</v>
       </c>
       <c r="C15">
-        <v>-1000</v>
+        <v>175876.29</v>
       </c>
       <c r="D15" t="s">
         <v>67</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="G15" t="s">
         <v>68</v>
@@ -1724,1908 +1868,1947 @@
         <v>70</v>
       </c>
       <c r="C16">
-        <v>813426.78</v>
+        <v>364223.11</v>
       </c>
       <c r="D16" t="s">
         <v>71</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="G16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C17">
-        <v>48359.74</v>
+        <v>280421.55</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="E17" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="G17" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C18">
-        <v>497320.96000000002</v>
+        <v>943820.51</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="E18" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F18" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G18" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C19">
-        <v>539675.43000000005</v>
+        <v>834787.53</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F19" t="s">
-        <v>49</v>
+        <v>31</v>
+      </c>
+      <c r="G19" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C20">
-        <v>-1000</v>
+        <v>577545.51</v>
       </c>
       <c r="D20" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G20" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>651802.48</v>
       </c>
       <c r="D21" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
+        <v>31</v>
+      </c>
+      <c r="G21" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B22" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C22">
-        <v>74221.509999999995</v>
+        <v>733220.33</v>
       </c>
       <c r="D22" t="s">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="E22" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="G22" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="B23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C23">
-        <v>201832.2</v>
+        <v>337338.4</v>
       </c>
       <c r="D23" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F23" t="s">
         <v>11</v>
       </c>
       <c r="G23" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="B24" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C24">
-        <v>778719.19</v>
+        <v>871336.82</v>
       </c>
       <c r="D24" t="s">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G24" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B25" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C25">
-        <v>818155.27</v>
+        <v>285384.46999999997</v>
       </c>
       <c r="D25" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E25" t="s">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="F25" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="G25" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="B26" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C26">
-        <v>-1000</v>
+        <v>466130.12</v>
       </c>
       <c r="D26" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E26" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="G26" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B27" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C27">
-        <v>95875.04</v>
+        <v>165360.04999999999</v>
       </c>
       <c r="D27" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="E27" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="F27" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G27" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C28">
-        <v>744514.35</v>
+        <v>967447.71</v>
       </c>
       <c r="D28" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="E28" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="G28" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="B29" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C29">
-        <v>705493.06</v>
+        <v>183702.96</v>
       </c>
       <c r="D29" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F29" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="G29" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B30" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C30">
-        <v>198092.87</v>
+        <v>454368.17</v>
       </c>
       <c r="D30" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="E30" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G30" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B31" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C31">
-        <v>360041.45</v>
+        <v>758690.69</v>
       </c>
       <c r="D31" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="G31" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B32" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C32">
-        <v>695056.66</v>
+        <v>524324.74</v>
       </c>
       <c r="D32" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B33" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C33">
-        <v>875273.87</v>
+        <v>837705.52</v>
       </c>
       <c r="D33" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F33" t="s">
-        <v>125</v>
+        <v>17</v>
       </c>
       <c r="G33" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B34" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C34">
-        <v>528701.06999999995</v>
+        <v>796730.26</v>
       </c>
       <c r="D34" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="E34" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G34" t="s">
-        <v>68</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B35" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C35">
-        <v>761189.92</v>
+        <v>435771.66</v>
       </c>
       <c r="D35" t="s">
-        <v>131</v>
+        <v>35</v>
       </c>
       <c r="E35" t="s">
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="G35" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B36" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C36">
-        <v>158108.18</v>
+        <v>185094.77</v>
       </c>
       <c r="D36" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E36" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="G36" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B37" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C37">
-        <v>302024.8</v>
+        <v>-1000</v>
       </c>
       <c r="D37" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F37" t="s">
-        <v>49</v>
+        <v>11</v>
+      </c>
+      <c r="G37" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B38" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C38">
-        <v>556551.22</v>
+        <v>698464.44</v>
       </c>
       <c r="D38" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" t="s">
-        <v>142</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B39" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C39">
-        <v>979733.96</v>
+        <v>270863.55</v>
       </c>
       <c r="D39" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="E39" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="F39" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="G39" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B40" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C40">
-        <v>173859.38</v>
+        <v>665977.06999999995</v>
       </c>
       <c r="D40" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E40" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="F40" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B41" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C41">
-        <v>-1000</v>
+        <v>689247.65</v>
       </c>
       <c r="D41" t="s">
-        <v>48</v>
+        <v>158</v>
       </c>
       <c r="E41" t="s">
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G41" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="B42" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="C42">
-        <v>5147.33</v>
+        <v>476311.3</v>
       </c>
       <c r="D42" t="s">
-        <v>48</v>
+        <v>162</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F42" t="s">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="G42" t="s">
-        <v>111</v>
+        <v>163</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="B43" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="C43">
-        <v>925616.59</v>
+        <v>817445.89</v>
       </c>
       <c r="D43" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="E43" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="G43" t="s">
-        <v>68</v>
+        <v>167</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B44" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="C44">
-        <v>1500000</v>
+        <v>804901.88</v>
       </c>
       <c r="D44" t="s">
-        <v>63</v>
+        <v>170</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F44" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G44" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="B45" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="C45">
-        <v>369585.5</v>
+        <v>282426.36</v>
       </c>
       <c r="D45" t="s">
-        <v>14</v>
+        <v>174</v>
       </c>
       <c r="E45" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G45" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="B46" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="C46">
-        <v>849222.03</v>
+        <v>1500000</v>
       </c>
       <c r="D46" t="s">
-        <v>63</v>
+        <v>178</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
+        <v>31</v>
+      </c>
+      <c r="G46" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="B47" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="C47">
-        <v>1500000</v>
+        <v>424180.01</v>
       </c>
       <c r="D47" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F47" t="s">
-        <v>35</v>
-      </c>
-      <c r="G47" t="s">
-        <v>169</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="B48" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="C48">
-        <v>1500000</v>
+        <v>309300.93</v>
       </c>
       <c r="D48" t="s">
-        <v>25</v>
+        <v>185</v>
       </c>
       <c r="E48" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F48" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="B49" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="C49">
-        <v>63488.65</v>
+        <v>0</v>
       </c>
       <c r="D49" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="E49" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="F49" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="B50" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="C50">
-        <v>374846.73</v>
+        <v>207750.29</v>
       </c>
       <c r="D50" t="s">
-        <v>178</v>
+        <v>91</v>
       </c>
       <c r="E50" t="s">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="F50" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="G50" t="s">
-        <v>68</v>
+        <v>192</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="B51" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="C51">
-        <v>-1000</v>
+        <v>809896.14</v>
       </c>
       <c r="D51" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="E51" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F51" t="s">
-        <v>125</v>
+        <v>11</v>
       </c>
       <c r="G51" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="B52" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="C52">
-        <v>960214.2</v>
+        <v>979371.34</v>
       </c>
       <c r="D52" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="E52" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="F52" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="G52" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="B53" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>689059.23</v>
       </c>
       <c r="D53" t="s">
-        <v>48</v>
+        <v>202</v>
       </c>
       <c r="E53" t="s">
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>125</v>
+        <v>11</v>
       </c>
       <c r="G53" t="s">
-        <v>83</v>
+        <v>203</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>18</v>
+        <v>204</v>
       </c>
       <c r="B54" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="C54">
-        <v>168775.66</v>
+        <v>868932.16</v>
       </c>
       <c r="D54" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G54" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="B55" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="C55">
-        <v>92050.75</v>
+        <v>787911.63</v>
       </c>
       <c r="D55" t="s">
-        <v>194</v>
+        <v>40</v>
       </c>
       <c r="E55" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>30</v>
+        <v>210</v>
       </c>
       <c r="G55" t="s">
-        <v>163</v>
+        <v>211</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="B56" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="C56">
-        <v>563847.84</v>
+        <v>811486.23</v>
       </c>
       <c r="D56" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>125</v>
+        <v>11</v>
       </c>
       <c r="G56" t="s">
-        <v>111</v>
+        <v>215</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="B57" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="C57">
-        <v>28770.26</v>
+        <v>120895.94</v>
       </c>
       <c r="D57" t="s">
-        <v>14</v>
+        <v>218</v>
       </c>
       <c r="E57" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
+        <v>210</v>
       </c>
       <c r="G57" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>18</v>
+        <v>220</v>
       </c>
       <c r="B58" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="C58">
-        <v>160419.68</v>
+        <v>352092.15</v>
       </c>
       <c r="D58" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G58" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="B59" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="C59">
-        <v>285930.40999999997</v>
+        <v>546154.93999999994</v>
       </c>
       <c r="D59" t="s">
-        <v>206</v>
+        <v>91</v>
       </c>
       <c r="E59" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G59" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="B60" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="C60">
-        <v>650341.32999999996</v>
+        <v>534603.25</v>
       </c>
       <c r="D60" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F60" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="B61" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="C61">
-        <v>404872.51</v>
+        <v>15969.21</v>
       </c>
       <c r="D61" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="F61" t="s">
-        <v>49</v>
+        <v>31</v>
+      </c>
+      <c r="G61" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="B62" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="C62">
-        <v>821862.08</v>
+        <v>604372.17000000004</v>
       </c>
       <c r="D62" t="s">
-        <v>48</v>
+        <v>236</v>
       </c>
       <c r="E62" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G62" t="s">
-        <v>111</v>
+        <v>237</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>215</v>
+        <v>47</v>
       </c>
       <c r="B63" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="C63">
-        <v>121599.12</v>
+        <v>225898.73</v>
       </c>
       <c r="D63" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E63" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="F63" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="G63" t="s">
-        <v>142</v>
+        <v>239</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="B64" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="C64">
-        <v>985518.31</v>
+        <v>831098.85</v>
       </c>
       <c r="D64" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="E64" t="s">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="F64" t="s">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="G64" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="B65" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="C65">
-        <v>636819.53</v>
+        <v>868466.31</v>
       </c>
       <c r="D65" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="E65" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="F65" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G65" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="B66" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="C66">
-        <v>763436.15</v>
+        <v>513525.72</v>
       </c>
       <c r="D66" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="E66" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F66" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G66" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="B67" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>640279.31999999995</v>
       </c>
       <c r="D67" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="E67" t="s">
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>35</v>
+        <v>31</v>
+      </c>
+      <c r="G67" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="B68" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="C68">
-        <v>804528.22</v>
+        <v>110920.99</v>
       </c>
       <c r="D68" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F68" t="s">
-        <v>49</v>
+        <v>11</v>
+      </c>
+      <c r="G68" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="B69" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="C69">
-        <v>964400.38</v>
+        <v>1500000</v>
       </c>
       <c r="D69" t="s">
-        <v>43</v>
+        <v>261</v>
       </c>
       <c r="E69" t="s">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="F69" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="G69" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="B70" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="C70">
-        <v>233390.62</v>
+        <v>10736.32</v>
       </c>
       <c r="D70" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F70" t="s">
-        <v>35</v>
+        <v>21</v>
+      </c>
+      <c r="G70" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="B71" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="C71">
-        <v>57865.279999999999</v>
+        <v>317602.71000000002</v>
       </c>
       <c r="D71" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="E71" t="s">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="F71" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G71" t="s">
-        <v>111</v>
+        <v>269</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="B72" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="C72">
-        <v>385880.63</v>
+        <v>443961.63</v>
       </c>
       <c r="D72" t="s">
-        <v>185</v>
+        <v>272</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F72" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="G72" t="s">
-        <v>31</v>
+        <v>273</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="B73" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="C73">
-        <v>714016.51</v>
+        <v>34596.57</v>
       </c>
       <c r="D73" t="s">
-        <v>14</v>
+        <v>276</v>
       </c>
       <c r="E73" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="F73" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G73" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="B74" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="C74">
-        <v>81297.62</v>
+        <v>632219.5</v>
       </c>
       <c r="D74" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="F74" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="G74" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>18</v>
+        <v>282</v>
       </c>
       <c r="B75" t="s">
-        <v>250</v>
+        <v>283</v>
       </c>
       <c r="C75">
-        <v>134788.59</v>
+        <v>169149.38</v>
       </c>
       <c r="D75" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E75" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="F75" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G75" t="s">
-        <v>251</v>
+        <v>284</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>252</v>
+        <v>285</v>
       </c>
       <c r="B76" t="s">
-        <v>253</v>
+        <v>286</v>
       </c>
       <c r="C76">
-        <v>1500000</v>
+        <v>131918.35</v>
       </c>
       <c r="D76" t="s">
-        <v>48</v>
+        <v>287</v>
       </c>
       <c r="E76" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="G76" t="s">
-        <v>111</v>
+        <v>288</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>254</v>
+        <v>289</v>
       </c>
       <c r="B77" t="s">
-        <v>255</v>
+        <v>290</v>
       </c>
       <c r="C77">
-        <v>389423.79</v>
+        <v>390638.63</v>
       </c>
       <c r="D77" t="s">
-        <v>256</v>
+        <v>291</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F77" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="G77" t="s">
-        <v>220</v>
+        <v>292</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>257</v>
+        <v>293</v>
       </c>
       <c r="B78" t="s">
-        <v>258</v>
+        <v>294</v>
       </c>
       <c r="C78">
-        <v>955486.4</v>
+        <v>667245.03</v>
       </c>
       <c r="D78" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="E78" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="F78" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="G78" t="s">
-        <v>259</v>
+        <v>295</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>260</v>
+        <v>296</v>
       </c>
       <c r="B79" t="s">
-        <v>261</v>
+        <v>297</v>
       </c>
       <c r="C79">
-        <v>626982.96</v>
+        <v>160699.14000000001</v>
       </c>
       <c r="D79" t="s">
-        <v>262</v>
+        <v>229</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G79" t="s">
-        <v>50</v>
+        <v>298</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="B80" t="s">
-        <v>264</v>
+        <v>300</v>
       </c>
       <c r="C80">
-        <v>895243.99</v>
+        <v>719221.49</v>
       </c>
       <c r="D80" t="s">
-        <v>265</v>
+        <v>106</v>
       </c>
       <c r="E80" t="s">
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>49</v>
+        <v>17</v>
+      </c>
+      <c r="G80" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>18</v>
+        <v>302</v>
       </c>
       <c r="B81" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="C81">
-        <v>682601.93</v>
+        <v>254394.11</v>
       </c>
       <c r="D81" t="s">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="E81" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="F81" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="G81" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="B82" t="s">
-        <v>269</v>
+        <v>306</v>
       </c>
       <c r="C82">
-        <v>785552.8</v>
+        <v>294475.21000000002</v>
       </c>
       <c r="D82" t="s">
-        <v>270</v>
+        <v>307</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F82" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G82" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="B83" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="C83">
-        <v>426824.93</v>
+        <v>547764.21</v>
       </c>
       <c r="D83" t="s">
-        <v>25</v>
+        <v>311</v>
       </c>
       <c r="E83" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G83" t="s">
-        <v>58</v>
+        <v>312</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="B84" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="C84">
-        <v>1500000</v>
+        <v>108550.66</v>
       </c>
       <c r="D84" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="F84" t="s">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="G84" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="B85" t="s">
-        <v>278</v>
+        <v>317</v>
       </c>
       <c r="C85">
-        <v>70379.13</v>
+        <v>226229.14</v>
       </c>
       <c r="D85" t="s">
-        <v>25</v>
+        <v>318</v>
       </c>
       <c r="E85" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="F85" t="s">
-        <v>125</v>
+        <v>17</v>
       </c>
       <c r="G85" t="s">
-        <v>259</v>
+        <v>319</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>279</v>
+        <v>320</v>
       </c>
       <c r="B86" t="s">
-        <v>280</v>
+        <v>321</v>
       </c>
       <c r="C86">
-        <v>32496.69</v>
+        <v>454323.82</v>
       </c>
       <c r="D86" t="s">
-        <v>281</v>
+        <v>322</v>
       </c>
       <c r="E86" t="s">
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="G86" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>282</v>
+        <v>324</v>
       </c>
       <c r="B87" t="s">
-        <v>283</v>
+        <v>325</v>
       </c>
       <c r="C87">
-        <v>460339.47</v>
+        <v>565718.42000000004</v>
       </c>
       <c r="D87" t="s">
-        <v>86</v>
+        <v>326</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F87" t="s">
-        <v>11</v>
+        <v>21</v>
+      </c>
+      <c r="G87" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>284</v>
+        <v>327</v>
       </c>
       <c r="B88" t="s">
-        <v>285</v>
+        <v>328</v>
       </c>
       <c r="C88">
-        <v>828383.72</v>
+        <v>698065.92000000004</v>
       </c>
       <c r="D88" t="s">
-        <v>286</v>
+        <v>91</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="F88" t="s">
-        <v>49</v>
+        <v>31</v>
+      </c>
+      <c r="G88" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>287</v>
+        <v>330</v>
       </c>
       <c r="B89" t="s">
-        <v>288</v>
+        <v>331</v>
       </c>
       <c r="C89">
-        <v>266076.2</v>
+        <v>124561.86</v>
       </c>
       <c r="D89" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F89" t="s">
         <v>11</v>
       </c>
       <c r="G89" t="s">
-        <v>290</v>
+        <v>332</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>291</v>
+        <v>333</v>
       </c>
       <c r="B90" t="s">
-        <v>292</v>
+        <v>334</v>
       </c>
       <c r="C90">
-        <v>335723.85</v>
+        <v>157002.23999999999</v>
       </c>
       <c r="D90" t="s">
-        <v>14</v>
+        <v>236</v>
       </c>
       <c r="E90" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="F90" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G90" t="s">
-        <v>293</v>
+        <v>335</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>294</v>
+        <v>336</v>
       </c>
       <c r="B91" t="s">
-        <v>295</v>
+        <v>337</v>
       </c>
       <c r="C91">
-        <v>376817.49</v>
+        <v>62861.84</v>
       </c>
       <c r="D91" t="s">
-        <v>296</v>
+        <v>338</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F91" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="G91" t="s">
-        <v>297</v>
+        <v>339</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>298</v>
+        <v>340</v>
       </c>
       <c r="B92" t="s">
-        <v>299</v>
+        <v>341</v>
       </c>
       <c r="C92">
-        <v>233891.95</v>
+        <v>465254.25</v>
       </c>
       <c r="D92" t="s">
-        <v>25</v>
+        <v>342</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="G92" t="s">
-        <v>300</v>
+        <v>343</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>301</v>
+        <v>344</v>
       </c>
       <c r="B93" t="s">
-        <v>302</v>
+        <v>345</v>
       </c>
       <c r="C93">
-        <v>930748.95</v>
+        <v>260083.81</v>
       </c>
       <c r="D93" t="s">
-        <v>303</v>
+        <v>346</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F93" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>18</v>
+        <v>347</v>
       </c>
       <c r="B94" t="s">
-        <v>304</v>
+        <v>348</v>
       </c>
       <c r="C94">
-        <v>24621</v>
+        <v>890680.45</v>
       </c>
       <c r="D94" t="s">
-        <v>305</v>
+        <v>349</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F94" t="s">
-        <v>16</v>
-      </c>
-      <c r="G94" t="s">
-        <v>306</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>307</v>
+        <v>350</v>
       </c>
       <c r="B95" t="s">
-        <v>308</v>
+        <v>351</v>
       </c>
       <c r="C95">
-        <v>290379.15999999997</v>
+        <v>255869.46</v>
       </c>
       <c r="D95" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="E95" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="F95" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G95" t="s">
-        <v>72</v>
+        <v>352</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>309</v>
+        <v>353</v>
       </c>
       <c r="B96" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="C96">
-        <v>755332.26</v>
+        <v>22947.39</v>
       </c>
       <c r="D96" t="s">
-        <v>311</v>
+        <v>35</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F96" t="s">
-        <v>16</v>
-      </c>
-      <c r="G96" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>312</v>
+        <v>355</v>
       </c>
       <c r="B97" t="s">
-        <v>313</v>
+        <v>356</v>
       </c>
       <c r="C97">
-        <v>498007.19</v>
+        <v>904723.11</v>
       </c>
       <c r="D97" t="s">
-        <v>14</v>
+        <v>357</v>
       </c>
       <c r="E97" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F97" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G97" t="s">
-        <v>83</v>
+        <v>273</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>314</v>
+        <v>358</v>
       </c>
       <c r="B98" t="s">
-        <v>315</v>
+        <v>359</v>
       </c>
       <c r="C98">
-        <v>961338.92</v>
+        <v>571816.31000000006</v>
       </c>
       <c r="D98" t="s">
-        <v>48</v>
+        <v>360</v>
       </c>
       <c r="E98" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>35</v>
+        <v>21</v>
+      </c>
+      <c r="G98" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>316</v>
+        <v>362</v>
       </c>
       <c r="B99" t="s">
-        <v>317</v>
+        <v>363</v>
       </c>
       <c r="C99">
-        <v>460690.68</v>
+        <v>78158.78</v>
       </c>
       <c r="D99" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="E99" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="F99" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="G99" t="s">
-        <v>318</v>
+        <v>364</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>319</v>
+        <v>365</v>
       </c>
       <c r="B100" t="s">
-        <v>320</v>
+        <v>366</v>
       </c>
       <c r="C100">
-        <v>57110.73</v>
+        <v>472209.02</v>
       </c>
       <c r="D100" t="s">
-        <v>321</v>
+        <v>367</v>
       </c>
       <c r="E100" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="F100" t="s">
-        <v>125</v>
+        <v>17</v>
       </c>
       <c r="G100" t="s">
-        <v>223</v>
+        <v>368</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>322</v>
+        <v>369</v>
       </c>
       <c r="B101" t="s">
-        <v>323</v>
+        <v>370</v>
       </c>
       <c r="C101">
-        <v>994358.81</v>
+        <v>341277.96</v>
       </c>
       <c r="D101" t="s">
-        <v>324</v>
+        <v>371</v>
       </c>
       <c r="E101" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F101" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G101" t="s">
-        <v>108</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Input/claims_data.xlsx
+++ b/Data/Input/claims_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MorisMwaiWachira\Desktop\MorisMwai_RPA_Assignment\CIC_Claims_Automation_Assessment\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12863C2A-62D6-43F8-849D-8FD7EB26260F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0007D623-CDE5-405E-8773-9814614EEA24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ClaimsData" sheetId="1" r:id="rId1"/>
@@ -1503,7 +1503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
